--- a/Examples/ngep/ngep1_model.xlsx
+++ b/Examples/ngep/ngep1_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\ExIOLab\Examples\ngep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF506868-CA43-456B-BF83-9455F55E3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0EF26C-974B-4466-936F-9F04EFDDE544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="2505" windowWidth="21435" windowHeight="10785" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="2505" windowWidth="21435" windowHeight="10785" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="WasteAllocation" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$15</definedName>
+    <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$12</definedName>
     <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$7</definedName>
-    <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$15</definedName>
+    <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$12</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="122">
   <si>
     <t>key</t>
   </si>
@@ -212,15 +212,9 @@
     <t>NG6</t>
   </si>
   <si>
-    <t>NG8</t>
-  </si>
-  <si>
     <t>NG9</t>
   </si>
   <si>
-    <t>A10</t>
-  </si>
-  <si>
     <t>G11</t>
   </si>
   <si>
@@ -383,9 +377,6 @@
     <t>Stack</t>
   </si>
   <si>
-    <t>NG9+A10</t>
-  </si>
-  <si>
     <t>G11+W36+(HT16+HT17-HT18-HT19)</t>
   </si>
   <si>
@@ -455,21 +446,6 @@
     <t>LT21-LT25-LT26</t>
   </si>
   <si>
-    <t>NG7</t>
-  </si>
-  <si>
-    <t>NGD</t>
-  </si>
-  <si>
-    <t>Natural Gas Distribution</t>
-  </si>
-  <si>
-    <t>NG8+NG9</t>
-  </si>
-  <si>
-    <t>NG6-NG7</t>
-  </si>
-  <si>
     <t>(kW)</t>
   </si>
   <si>
@@ -477,6 +453,9 @@
   </si>
   <si>
     <t>nORC</t>
+  </si>
+  <si>
+    <t>NG6-NG9</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +985,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1055,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1084,15 +1063,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1100,23 +1079,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1124,7 +1103,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1132,15 +1111,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -1148,7 +1127,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -1156,7 +1135,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -1164,7 +1143,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -1172,7 +1151,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1180,7 +1159,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -1188,7 +1167,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -1196,7 +1175,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -1204,7 +1183,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1212,7 +1191,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -1220,7 +1199,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -1228,7 +1207,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -1236,7 +1215,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1260,7 +1239,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1268,7 +1247,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1276,33 +1255,9 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1316,7 +1271,7 @@
           <x14:formula1>
             <xm:f>Validate!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B2:B8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1327,10 +1282,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,16 +1318,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1380,16 +1335,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1397,16 +1352,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1414,16 +1369,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1431,16 +1386,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1448,16 +1403,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1465,16 +1420,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1482,16 +1437,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1499,16 +1454,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1516,16 +1471,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1533,16 +1488,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1550,16 +1505,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
         <v>117</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1567,16 +1522,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1584,16 +1539,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1607,29 +1562,12 @@
         <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1642,7 +1580,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E17</xm:sqref>
+          <xm:sqref>E2:E16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1653,10 +1591,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1610,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1680,10 +1618,10 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>366255</v>
+        <v>8526</v>
       </c>
       <c r="C2">
-        <v>366255</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1691,10 +1629,10 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>366289</v>
+        <v>8560</v>
       </c>
       <c r="C3">
-        <v>366297</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1702,10 +1640,10 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>366379</v>
+        <v>8650</v>
       </c>
       <c r="C4">
-        <v>366379</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1713,10 +1651,10 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>364957</v>
+        <v>7228</v>
       </c>
       <c r="C5">
-        <v>364957</v>
+        <v>6378</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1724,10 +1662,10 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>364986</v>
+        <v>7257</v>
       </c>
       <c r="C6">
-        <v>364994</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1735,205 +1673,205 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>365039</v>
+        <v>7310</v>
       </c>
       <c r="C7">
-        <v>365039</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="B8">
-        <v>363808</v>
+        <v>6079</v>
       </c>
       <c r="C8">
-        <v>363807</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9">
-        <v>357729</v>
+        <v>851.4</v>
       </c>
       <c r="C9">
-        <v>358579</v>
+        <v>732.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>6079</v>
+        <v>180.9</v>
       </c>
       <c r="C10">
-        <v>5228</v>
+        <v>732.3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>146.6</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12">
-        <v>851.4</v>
+        <v>146.6</v>
       </c>
       <c r="C12">
-        <v>732.3</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>180.9</v>
+        <v>231.5</v>
       </c>
       <c r="C13">
-        <v>732.3</v>
+        <v>203.6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>146.6</v>
+        <v>146.5</v>
       </c>
       <c r="C14">
-        <v>123.8</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15">
-        <v>146.6</v>
+        <v>73.5</v>
       </c>
       <c r="C15">
-        <v>123.8</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16">
-        <v>231.5</v>
+        <v>116.1</v>
       </c>
       <c r="C16">
-        <v>203.6</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
-        <v>146.5</v>
+        <v>81.8</v>
       </c>
       <c r="C17">
-        <v>121.5</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18">
-        <v>73.5</v>
+        <v>55.4</v>
       </c>
       <c r="C18">
-        <v>60.9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19">
-        <v>116.1</v>
+        <v>48.1</v>
       </c>
       <c r="C19">
-        <v>102.1</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20">
-        <v>81.8</v>
+        <v>2.93</v>
       </c>
       <c r="C20">
-        <v>6.96</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21">
-        <v>55.4</v>
+        <v>3.38</v>
       </c>
       <c r="C21">
-        <v>61</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B22">
-        <v>48.1</v>
+        <v>640.1</v>
       </c>
       <c r="C22">
-        <v>53.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23">
-        <v>2.93</v>
+        <v>193.9</v>
       </c>
       <c r="C23">
-        <v>3.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24">
-        <v>3.38</v>
+        <v>157.30000000000001</v>
       </c>
       <c r="C24">
-        <v>3.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25">
-        <v>640.1</v>
+        <v>12.1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1941,10 +1879,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26">
-        <v>193.9</v>
+        <v>21.8</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1952,10 +1890,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27">
-        <v>157.30000000000001</v>
+        <v>49.1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1963,13 +1901,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B28">
-        <v>12.1</v>
+        <v>906</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>906</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,10 +1915,10 @@
         <v>60</v>
       </c>
       <c r="B29">
-        <v>21.8</v>
+        <v>883.8</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>883.8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1988,75 +1926,42 @@
         <v>61</v>
       </c>
       <c r="B30">
-        <v>49.1</v>
+        <v>2349</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B31">
-        <v>906</v>
+        <v>343.2</v>
       </c>
       <c r="C31">
-        <v>906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32">
-        <v>883.8</v>
+        <v>13.2</v>
       </c>
       <c r="C32">
-        <v>883.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33">
-        <v>2349</v>
+        <v>4482</v>
       </c>
       <c r="C33">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34">
-        <v>343.2</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35">
-        <v>13.2</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36">
-        <v>4482</v>
-      </c>
-      <c r="C36">
         <v>3809.8</v>
       </c>
     </row>
@@ -2104,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2118,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2132,7 +2037,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2146,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2160,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2115,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -2258,12 +2163,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>1</v>

--- a/Examples/ngep/ngep1_model.xlsx
+++ b/Examples/ngep/ngep1_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\ExIOLab\Examples\ngep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\ngep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0EF26C-974B-4466-936F-9F04EFDDE544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E88DE63-69EF-4D79-870B-D0AB05CBAA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="2505" windowWidth="21435" windowHeight="10785" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="780" windowWidth="25740" windowHeight="14700" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$12</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$7</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$7</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$12</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
@@ -1285,16 +1285,16 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E1" sqref="E1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -1313,7 +1313,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
@@ -1330,7 +1330,7 @@
         <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
@@ -1347,7 +1347,7 @@
         <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>98</v>
@@ -1364,7 +1364,7 @@
         <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>104</v>
@@ -1381,7 +1381,7 @@
         <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>102</v>
@@ -1398,7 +1398,7 @@
         <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
@@ -1415,7 +1415,7 @@
         <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
         <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
@@ -1432,7 +1432,7 @@
         <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>121</v>
@@ -1449,7 +1449,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -1466,7 +1466,7 @@
         <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>110</v>
@@ -1483,7 +1483,7 @@
         <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1491,7 +1491,7 @@
         <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>112</v>
@@ -1500,7 +1500,7 @@
         <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1508,7 +1508,7 @@
         <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>114</v>
@@ -1517,7 +1517,7 @@
         <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>63</v>
@@ -1534,7 +1534,7 @@
         <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>116</v>
@@ -1551,7 +1551,7 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>43</v>
@@ -1568,7 +1568,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1580,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E16</xm:sqref>
+          <xm:sqref>B2:B16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
